--- a/fhir/ig/mfr/ValueSet-VSTipoIdentificadorDEIS.xlsx
+++ b/fhir/ig/mfr/ValueSet-VSTipoIdentificadorDEIS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Códigos para tipops de identificadores 820</t>
+    <t>Códigos para tipops de identificadores</t>
   </si>
   <si>
     <t>Status</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Códigos para lo tipos de identificadores según Norma 820, agregando RNPI</t>
+    <t>Códigos para lo tipos de identificadores</t>
   </si>
   <si>
     <t>Purpose</t>
